--- a/２年/心研実習/触二点のデータカッコカリ.xlsx
+++ b/２年/心研実習/触二点のデータカッコカリ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26004"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="7720" windowWidth="20500" windowHeight="9440"/>
+    <workbookView xWindow="300" yWindow="1480" windowWidth="26500" windowHeight="14620"/>
   </bookViews>
   <sheets>
     <sheet name="データ" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,6 +433,24 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -600,8 +618,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -718,8 +754,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -796,11 +838,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2121614472"/>
-        <c:axId val="2139250344"/>
+        <c:axId val="-2124713672"/>
+        <c:axId val="-2124579048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2121614472"/>
+        <c:axId val="-2124713672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,7 +885,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139250344"/>
+        <c:crossAx val="-2124579048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -851,7 +893,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2139250344"/>
+        <c:axId val="-2124579048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -902,7 +944,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2121614472"/>
+        <c:crossAx val="-2124713672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1132,6 +1174,24 @@
             <c:errBarType val="both"/>
             <c:errValType val="stdErr"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.73</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.73</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1204,11 +1264,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2139312216"/>
-        <c:axId val="2139323880"/>
+        <c:axId val="2145649224"/>
+        <c:axId val="2127706856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2139312216"/>
+        <c:axId val="2145649224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1251,7 +1311,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139323880"/>
+        <c:crossAx val="2127706856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1259,7 +1319,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2139323880"/>
+        <c:axId val="2127706856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1310,7 +1370,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139312216"/>
+        <c:crossAx val="2145649224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3008,7 +3068,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3018,8 +3078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="H28" sqref="A1:H28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -4051,6 +4111,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
